--- a/inst/extdata/exampleARS_3.xlsx
+++ b/inst/extdata/exampleARS_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clymb-my.sharepoint.com/personal/mbosman_clymb_onmicrosoft_com/Documents/Documents/siera/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_E75126E222C69DF390F1E656046825349E65D396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6FA662-F0F7-444A-AA62-058EA8E2BC27}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_E75126E222C69DF390F1E656046825349E65D396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502D1364-CB73-4550-91B7-4488A703E164}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="616">
   <si>
     <t>generatedUsing</t>
   </si>
@@ -1978,7 +1978,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1988,6 +1988,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,16 +2025,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8535,8 +8542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8560,9 +8567,9 @@
     <col min="17" max="17" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8669,34 +8676,34 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="P3" s="2" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="P3" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="4" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8756,56 +8763,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8938,47 +8945,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="W9" t="s">
+      <c r="T9" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9038,47 +9054,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="W11" t="s">
+      <c r="T11" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9177,6 +9202,15 @@
       </c>
       <c r="S13" t="s">
         <v>461</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="W13" t="s">
         <v>54</v>
@@ -9872,9 +9906,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="156.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="201.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -11000,7 +11055,7 @@
       <c r="C2" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>613</v>
       </c>
     </row>
@@ -11014,7 +11069,7 @@
       <c r="C3" t="s">
         <v>576</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>614</v>
       </c>
     </row>
@@ -11028,7 +11083,7 @@
       <c r="C4" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>615</v>
       </c>
     </row>
@@ -12492,7 +12547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/exampleARS_3.xlsx
+++ b/inst/extdata/exampleARS_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clymb-my.sharepoint.com/personal/mbosman_clymb_onmicrosoft_com/Documents/Documents/siera/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_E75126E222C69DF390F1E656046825349E65D396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502D1364-CB73-4550-91B7-4488A703E164}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_E75126E222C69DF390F1E656046825349E65D396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0CF0427-B259-44CA-98B5-785F3F7BBCF9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2031,11 +2031,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8542,7 +8540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -8676,34 +8674,34 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="P3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8763,56 +8761,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8945,56 +8943,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9054,56 +9052,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="R11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9203,13 +9201,13 @@
       <c r="S13" t="s">
         <v>461</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="3" t="s">
         <v>463</v>
       </c>
       <c r="W13" t="s">
@@ -11022,8 +11020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11045,7 +11043,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>456</v>
       </c>
@@ -11055,11 +11053,11 @@
       <c r="C2" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -11069,11 +11067,11 @@
       <c r="C3" t="s">
         <v>576</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -11083,7 +11081,7 @@
       <c r="C4" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>615</v>
       </c>
     </row>

--- a/inst/extdata/exampleARS_3.xlsx
+++ b/inst/extdata/exampleARS_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clymb-my.sharepoint.com/personal/mbosman_clymb_onmicrosoft_com/Documents/Documents/siera/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_E75126E222C69DF390F1E656046825349E65D396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0CF0427-B259-44CA-98B5-785F3F7BBCF9}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_E75126E222C69DF390F1E656046825349E65D396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D637438C-FC4A-4803-9396-90597DB66C00}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2025,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2033,7 +2033,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4958,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -9904,7 +9903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M13"/>
     </sheetView>
   </sheetViews>
@@ -11020,13 +11019,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="78.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -11053,7 +11055,7 @@
       <c r="C2" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>613</v>
       </c>
     </row>
@@ -11067,7 +11069,7 @@
       <c r="C3" t="s">
         <v>576</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>614</v>
       </c>
     </row>
@@ -11081,7 +11083,7 @@
       <c r="C4" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>615</v>
       </c>
     </row>
@@ -11094,7 +11096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -11579,7 +11581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -11750,7 +11754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35:XFD96"/>
     </sheetView>
   </sheetViews>
